--- a/REGULAR/TICC/PERIDO, MARITES.xlsx
+++ b/REGULAR/TICC/PERIDO, MARITES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="269">
   <si>
     <t>PERIOD</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t>9/5-13/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/11-13/2023</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1730,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1773,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1837,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1897,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1963,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2026,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2124,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2183,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2248,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2291,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2366,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2552,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2618,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2676,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2742,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2798,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2873,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2916,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2982,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3038,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3136,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3199,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3265,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K593" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K594" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3632,12 +3638,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K593"/>
+  <dimension ref="A2:K594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A565" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A571" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E577" sqref="E577"/>
+      <selection pane="bottomLeft" activeCell="C581" sqref="C581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,7 +3804,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>178.51099999999991</v>
+        <v>179.26099999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3808,7 +3814,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>215.25</v>
+        <v>217</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16110,15 +16116,17 @@
       <c r="B577" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C577" s="13"/>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39">
         <v>7</v>
       </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
@@ -16128,40 +16136,62 @@
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40"/>
-      <c r="B578" s="20"/>
-      <c r="C578" s="13"/>
-      <c r="D578" s="39"/>
+      <c r="A578" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B578" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D578" s="39">
+        <v>3</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="20" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
-      <c r="B579" s="20"/>
-      <c r="C579" s="13"/>
+      <c r="A579" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H579" s="39"/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H579" s="39">
+        <v>1</v>
+      </c>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="56">
+        <v>45253</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
-      <c r="B580" s="20"/>
+      <c r="B580" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
@@ -16170,14 +16200,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H580" s="39"/>
+      <c r="H580" s="39">
+        <v>1</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="56">
+        <v>45237</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
-      <c r="B581" s="20"/>
+      <c r="A581" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B581" s="20" t="s">
+        <v>249</v>
+      </c>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
@@ -16189,10 +16227,12 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="56">
+        <v>45278</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
+      <c r="A582" s="41"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -16368,20 +16408,36 @@
       <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="41"/>
-      <c r="B593" s="15"/>
-      <c r="C593" s="42"/>
-      <c r="D593" s="43"/>
+      <c r="A593" s="40"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="39"/>
       <c r="E593" s="9"/>
-      <c r="F593" s="15"/>
-      <c r="G593" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H593" s="43"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H593" s="39"/>
       <c r="I593" s="9"/>
-      <c r="J593" s="12"/>
-      <c r="K593" s="15"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="41"/>
+      <c r="B594" s="15"/>
+      <c r="C594" s="42"/>
+      <c r="D594" s="43"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="15"/>
+      <c r="G594" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="43"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="12"/>
+      <c r="K594" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16551,7 +16607,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>393.76099999999991</v>
+        <v>396.26099999999991</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
